--- a/ResultadoEleicoesDistritos/BRAGANÇA_MIRANDELA.xlsx
+++ b/ResultadoEleicoesDistritos/BRAGANÇA_MIRANDELA.xlsx
@@ -597,31 +597,31 @@
         <v>6748</v>
       </c>
       <c r="H2" t="n">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="I2" t="n">
-        <v>631</v>
+        <v>669</v>
       </c>
       <c r="J2" t="n">
-        <v>2720</v>
+        <v>2817</v>
       </c>
       <c r="K2" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L2" t="n">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="N2" t="n">
-        <v>493</v>
+        <v>470</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q2" t="n">
         <v>6</v>
@@ -630,31 +630,31 @@
         <v>39</v>
       </c>
       <c r="S2" t="n">
-        <v>334</v>
+        <v>288</v>
       </c>
       <c r="T2" t="n">
-        <v>536</v>
+        <v>481</v>
       </c>
       <c r="U2" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="V2" t="n">
-        <v>4300</v>
+        <v>4351</v>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>4301</v>
+        <v>4294</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Z2" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AA2" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
